--- a/RevenuePlan_Upload.xlsx
+++ b/RevenuePlan_Upload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shj08\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7CB60A-CC48-4D9F-8B92-A3A4023270CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F0E47-4258-4A2E-9C3B-CD29A554016F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29565" yWindow="3585" windowWidth="12780" windowHeight="11175" xr2:uid="{CC890FFC-E055-4E35-BB9B-45C996DBA1BC}"/>
+    <workbookView xWindow="28680" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{CC890FFC-E055-4E35-BB9B-45C996DBA1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="78">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,223 @@
   </si>
   <si>
     <t>ChannelDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그</t>
+  </si>
+  <si>
+    <t>이마트</t>
+  </si>
+  <si>
+    <t>노브랜드</t>
+  </si>
+  <si>
+    <t>트레이더스</t>
+  </si>
+  <si>
+    <t>에브리데이</t>
+  </si>
+  <si>
+    <t>이마트24</t>
+  </si>
+  <si>
+    <t>홈플러스</t>
+  </si>
+  <si>
+    <t>(주)홈플러스</t>
+  </si>
+  <si>
+    <t>롯데마트</t>
+  </si>
+  <si>
+    <t>롯데마트(+슈퍼)</t>
+  </si>
+  <si>
+    <t>B마트</t>
+  </si>
+  <si>
+    <t>(주)우아한형제들</t>
+  </si>
+  <si>
+    <t>하나로모아산업(주)</t>
+  </si>
+  <si>
+    <t>킴스클럽</t>
+  </si>
+  <si>
+    <t>(주)이랜드리테일</t>
+  </si>
+  <si>
+    <t>도매(정기)</t>
+  </si>
+  <si>
+    <t>서해현대유통</t>
+  </si>
+  <si>
+    <t>(주)꼬끼오</t>
+  </si>
+  <si>
+    <t>국군복지단</t>
+  </si>
+  <si>
+    <t>서연유통</t>
+  </si>
+  <si>
+    <t>메가마트</t>
+  </si>
+  <si>
+    <t>트라이얼마트</t>
+  </si>
+  <si>
+    <t>(주)리빙</t>
+  </si>
+  <si>
+    <t>(주)태산홀딩스</t>
+  </si>
+  <si>
+    <t>(주)다인유통</t>
+  </si>
+  <si>
+    <t>(주)심스리빙</t>
+  </si>
+  <si>
+    <t>(주)에이치앤엘아이앤씨</t>
+  </si>
+  <si>
+    <t>(주)제일종합유통</t>
+  </si>
+  <si>
+    <t>다온</t>
+  </si>
+  <si>
+    <t>쿠팡</t>
+  </si>
+  <si>
+    <t>쿠팡주식회사</t>
+  </si>
+  <si>
+    <t>CPLB(코멧)</t>
+  </si>
+  <si>
+    <t>씨피엘비 주식회사</t>
+  </si>
+  <si>
+    <t>네이버 스토어팜</t>
+  </si>
+  <si>
+    <t>스토어팜_프로그</t>
+  </si>
+  <si>
+    <t>마켓컬리</t>
+  </si>
+  <si>
+    <t>(주)컬리</t>
+  </si>
+  <si>
+    <t>오늘의집</t>
+  </si>
+  <si>
+    <t>(주)버킷플레이스</t>
+  </si>
+  <si>
+    <t>토스</t>
+  </si>
+  <si>
+    <t>(주)비바리퍼블리카</t>
+  </si>
+  <si>
+    <t>CJ홈쇼핑</t>
+  </si>
+  <si>
+    <t>(주)씨제이이엔엠</t>
+  </si>
+  <si>
+    <t>현대홈쇼핑</t>
+  </si>
+  <si>
+    <t>(주)현대홈쇼핑</t>
+  </si>
+  <si>
+    <t>홈앤쇼핑</t>
+  </si>
+  <si>
+    <t>(주)홈앤쇼핑</t>
+  </si>
+  <si>
+    <t>11번가(위탁)</t>
+  </si>
+  <si>
+    <t>11번가</t>
+  </si>
+  <si>
+    <t>띵샵</t>
+  </si>
+  <si>
+    <t>롯데카드 주식회사</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
+    <t>주식회사 카카오</t>
+  </si>
+  <si>
+    <t>온라인(비정기)</t>
+  </si>
+  <si>
+    <t>GS홈쇼핑</t>
+  </si>
+  <si>
+    <t>(주)지에스리테일 홈쇼핑</t>
+  </si>
+  <si>
+    <t>자사몰</t>
+  </si>
+  <si>
+    <t>자사몰_스크럽대디</t>
+  </si>
+  <si>
+    <t>올리브영</t>
+  </si>
+  <si>
+    <t>(주)씨제이올리브영</t>
+  </si>
+  <si>
+    <t>29CM</t>
+  </si>
+  <si>
+    <t>(주)무신사</t>
+  </si>
+  <si>
+    <t>(주)폼하이테크</t>
+  </si>
+  <si>
+    <t>코스트코</t>
+  </si>
+  <si>
+    <t>(주)코스트코코리아</t>
+  </si>
+  <si>
+    <t>(주)햅스토어</t>
+  </si>
+  <si>
+    <t>㈜이마트</t>
+  </si>
+  <si>
+    <t>(주)호민상사</t>
+  </si>
+  <si>
+    <t>도매(비정기)</t>
+  </si>
+  <si>
+    <t>(주)헬로우아폴로</t>
+  </si>
+  <si>
+    <t>스크럽대디</t>
+  </si>
+  <si>
+    <t>EXPECTED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +283,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +301,20 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NanumGothicOTFLight"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,18 +334,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{C6192FC1-8AA1-4F25-A1E2-AA0037A6B5A9}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{4604BAFC-C9C2-4B03-9780-02B908B3F55E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,22 +686,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB91EFA-3FC0-48E9-8038-E1892C7DACF0}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,6 +719,1226 @@
       </c>
       <c r="F1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>133000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>4604688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8">
+        <v>8100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9">
+        <v>27900000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14">
+        <v>7895835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15">
+        <v>5350000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16">
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27">
+        <v>631000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29">
+        <v>49322000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36">
+        <v>576000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38">
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41">
+        <v>78587544.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42">
+        <v>16285057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43">
+        <v>4931612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44">
+        <v>16040183.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45">
+        <v>8126888</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46">
+        <v>4022369.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47">
+        <v>14455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48">
+        <v>177297488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49">
+        <v>227516800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51">
+        <v>26547200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53">
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54">
+        <v>12800000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62">
+        <v>2800000</v>
       </c>
     </row>
   </sheetData>
